--- a/QuickSight_Project_Attendance.xlsx
+++ b/QuickSight_Project_Attendance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\prasanna_aws_project\AWS_PROJECT_ATTENDENCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FD2568-6F61-4F15-8739-F7F8FE3014A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24C339-2832-432F-B947-86FCA9A8B345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BFDD01A-0499-4C08-BDFE-8B1C6BEA493C}"/>
+    <workbookView xWindow="3768" yWindow="1488" windowWidth="17280" windowHeight="8880" xr2:uid="{0BFDD01A-0499-4C08-BDFE-8B1C6BEA493C}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2025" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>S.No</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>4:24Pm</t>
+  </si>
+  <si>
+    <t>14-01-2025 ----no meeting---</t>
+  </si>
+  <si>
+    <t>Santhosh</t>
   </si>
 </sst>
 </file>
@@ -79,12 +85,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D09822C-B4BC-4C5E-B2E2-2B81B66BCE8B}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +508,88 @@
         <v>0.77430555555555558</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45672</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.88958333333333328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45672</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.88958333333333328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QuickSight_Project_Attendance.xlsx
+++ b/QuickSight_Project_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\prasanna_aws_project\AWS_PROJECT_ATTENDENCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24C339-2832-432F-B947-86FCA9A8B345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0B79D-1E38-4DB0-B94A-75F3D1CA945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3768" yWindow="1488" windowWidth="17280" windowHeight="8880" xr2:uid="{0BFDD01A-0499-4C08-BDFE-8B1C6BEA493C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Santhosh</t>
+  </si>
+  <si>
+    <t>15-01-2025 ---- no meeting---</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D09822C-B4BC-4C5E-B2E2-2B81B66BCE8B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,22 +527,23 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45672</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -556,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -575,20 +579,86 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45673</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.88958333333333328</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45674</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.78541666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45674</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.78541666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45674</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.68541666666666667</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.78541666666666665</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuickSight_Project_Attendance.xlsx
+++ b/QuickSight_Project_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\prasanna_aws_project\AWS_PROJECT_ATTENDENCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0B79D-1E38-4DB0-B94A-75F3D1CA945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D440E6-F431-4A75-87D0-B9CB384F08F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="1488" windowWidth="17280" windowHeight="8880" xr2:uid="{0BFDD01A-0499-4C08-BDFE-8B1C6BEA493C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BFDD01A-0499-4C08-BDFE-8B1C6BEA493C}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2025" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>S.No</t>
   </si>
@@ -73,16 +73,41 @@
   </si>
   <si>
     <t>15-01-2025 ---- no meeting---</t>
+  </si>
+  <si>
+    <t>18-01-2025-------- Saturday---</t>
+  </si>
+  <si>
+    <t>19-01-2025---Sunday---</t>
+  </si>
+  <si>
+    <t>20-01-2025-----no meting---</t>
+  </si>
+  <si>
+    <t>21-01-2025---no meeting ---</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,11 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D09822C-B4BC-4C5E-B2E2-2B81B66BCE8B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,11 +683,139 @@
         <v>0.78541666666666665</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.73055555555555551</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.73055555555555551</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.73055555555555551</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>